--- a/vtiger-CRM-FRAMEWORK-A12/src/test/resources/testScriptData.xlsx
+++ b/vtiger-CRM-FRAMEWORK-A12/src/test/resources/testScriptData.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="samplesheet" sheetId="1" r:id="rId1"/>
     <sheet name="A12" sheetId="2" r:id="rId2"/>
     <sheet name="org" sheetId="3" r:id="rId3"/>
+    <sheet name="website" sheetId="4" r:id="rId4"/>
+    <sheet name="LastName" sheetId="5" r:id="rId5"/>
+    <sheet name="Name" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samplesheet!$A$2:$U$30</definedName>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>S.No</t>
   </si>
@@ -156,12 +159,6 @@
     <t>ANMOL</t>
   </si>
   <si>
-    <t>orgName</t>
-  </si>
-  <si>
-    <t>fb_</t>
-  </si>
-  <si>
     <t>insta_</t>
   </si>
   <si>
@@ -187,6 +184,126 @@
   </si>
   <si>
     <t>ey_</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>Google_</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Tiwari</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Mahajan</t>
+  </si>
+  <si>
+    <t>Thakur</t>
+  </si>
+  <si>
+    <t>Rajput</t>
+  </si>
+  <si>
+    <t>Gandhi</t>
+  </si>
+  <si>
+    <t>Walia</t>
+  </si>
+  <si>
+    <t>Kaur</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Arpita</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>Anukriti</t>
+  </si>
+  <si>
+    <t>Sushant</t>
+  </si>
+  <si>
+    <t>Raghav</t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>Keerti</t>
+  </si>
+  <si>
+    <t>Deepa</t>
+  </si>
+  <si>
+    <t>Vidhi</t>
+  </si>
+  <si>
+    <t>Shriya</t>
+  </si>
+  <si>
+    <t>Abhi</t>
+  </si>
+  <si>
+    <t>Arushi</t>
+  </si>
+  <si>
+    <t>Sayam</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>Pradhi</t>
+  </si>
+  <si>
+    <t>Divit</t>
+  </si>
+  <si>
+    <t>Neena</t>
+  </si>
+  <si>
+    <t>Pitamber</t>
+  </si>
+  <si>
+    <t>Veena</t>
+  </si>
+  <si>
+    <t>Naresh</t>
+  </si>
+  <si>
+    <t>Yahoo_</t>
   </si>
 </sst>
 </file>
@@ -214,7 +331,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -308,10 +431,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,24 +534,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91961216"/>
-        <c:axId val="91969408"/>
+        <c:axId val="118999680"/>
+        <c:axId val="119079296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91961216"/>
+        <c:axId val="118999680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91969408"/>
+        <c:crossAx val="119079296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91969408"/>
+        <c:axId val="119079296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +559,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91961216"/>
+        <c:crossAx val="118999680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -447,7 +571,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -788,8 +912,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -1388,69 +1512,312 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
-        <v>45</v>
+      <c r="A1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
+      <c r="A2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
+      <c r="A3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>